--- a/results/CIFAR100/simplecnn/noise_0.1/Adam/runs_and_aggregate.xlsx
+++ b/results/CIFAR100/simplecnn/noise_0.1/Adam/runs_and_aggregate.xlsx
@@ -487,7 +487,7 @@
         <v>13.77</v>
       </c>
       <c r="F2" t="n">
-        <v>37.57774782180786</v>
+        <v>29.96174049377441</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         <v>19.35</v>
       </c>
       <c r="F3" t="n">
-        <v>38.92198038101196</v>
+        <v>29.78438615798951</v>
       </c>
     </row>
     <row r="4">
@@ -527,7 +527,7 @@
         <v>23.33</v>
       </c>
       <c r="F4" t="n">
-        <v>38.34660744667053</v>
+        <v>29.62546849250793</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +547,7 @@
         <v>26.01</v>
       </c>
       <c r="F5" t="n">
-        <v>38.20294284820557</v>
+        <v>29.62471342086792</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         <v>27.52</v>
       </c>
       <c r="F6" t="n">
-        <v>38.36055850982666</v>
+        <v>29.54766011238098</v>
       </c>
     </row>
     <row r="7">
@@ -587,7 +587,7 @@
         <v>29.16</v>
       </c>
       <c r="F7" t="n">
-        <v>38.33437776565552</v>
+        <v>29.63524317741394</v>
       </c>
     </row>
     <row r="8">
@@ -607,7 +607,7 @@
         <v>30.28</v>
       </c>
       <c r="F8" t="n">
-        <v>38.13685417175293</v>
+        <v>29.60845232009888</v>
       </c>
     </row>
     <row r="9">
@@ -627,7 +627,7 @@
         <v>32.27</v>
       </c>
       <c r="F9" t="n">
-        <v>38.51727294921875</v>
+        <v>29.63120079040528</v>
       </c>
     </row>
     <row r="10">
@@ -647,7 +647,7 @@
         <v>33.54</v>
       </c>
       <c r="F10" t="n">
-        <v>37.65632796287537</v>
+        <v>29.63078212738037</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>33</v>
       </c>
       <c r="F11" t="n">
-        <v>36.69584941864014</v>
+        <v>29.94678854942322</v>
       </c>
     </row>
     <row r="12">
@@ -687,7 +687,7 @@
         <v>35.94</v>
       </c>
       <c r="F12" t="n">
-        <v>36.06246447563171</v>
+        <v>29.61541700363159</v>
       </c>
     </row>
     <row r="13">
@@ -707,7 +707,7 @@
         <v>36.31</v>
       </c>
       <c r="F13" t="n">
-        <v>35.97966027259827</v>
+        <v>29.76275873184204</v>
       </c>
     </row>
     <row r="14">
@@ -727,7 +727,7 @@
         <v>35.9</v>
       </c>
       <c r="F14" t="n">
-        <v>38.69932198524475</v>
+        <v>29.57445549964905</v>
       </c>
     </row>
     <row r="15">
@@ -747,7 +747,7 @@
         <v>36.61</v>
       </c>
       <c r="F15" t="n">
-        <v>38.15031838417053</v>
+        <v>29.67438411712646</v>
       </c>
     </row>
     <row r="16">
@@ -767,7 +767,7 @@
         <v>36.89</v>
       </c>
       <c r="F16" t="n">
-        <v>36.76359939575195</v>
+        <v>29.73203134536743</v>
       </c>
     </row>
     <row r="17">
@@ -787,7 +787,7 @@
         <v>37.22</v>
       </c>
       <c r="F17" t="n">
-        <v>36.54837465286255</v>
+        <v>29.76456689834595</v>
       </c>
     </row>
     <row r="18">
@@ -807,7 +807,7 @@
         <v>37.71</v>
       </c>
       <c r="F18" t="n">
-        <v>36.53507161140442</v>
+        <v>29.77015519142151</v>
       </c>
     </row>
     <row r="19">
@@ -827,7 +827,7 @@
         <v>38.56</v>
       </c>
       <c r="F19" t="n">
-        <v>36.51969051361084</v>
+        <v>29.69072222709656</v>
       </c>
     </row>
     <row r="20">
@@ -847,7 +847,7 @@
         <v>39.13</v>
       </c>
       <c r="F20" t="n">
-        <v>36.35581731796265</v>
+        <v>29.57468318939209</v>
       </c>
     </row>
     <row r="21">
@@ -867,7 +867,7 @@
         <v>39</v>
       </c>
       <c r="F21" t="n">
-        <v>37.09290385246277</v>
+        <v>29.88923645019531</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +938,7 @@
         <v>13.55</v>
       </c>
       <c r="F2" t="n">
-        <v>37.20053148269653</v>
+        <v>29.98364663124084</v>
       </c>
     </row>
     <row r="3">
@@ -958,7 +958,7 @@
         <v>19.58</v>
       </c>
       <c r="F3" t="n">
-        <v>37.94178628921509</v>
+        <v>29.72603487968445</v>
       </c>
     </row>
     <row r="4">
@@ -978,7 +978,7 @@
         <v>23.3</v>
       </c>
       <c r="F4" t="n">
-        <v>37.81675457954407</v>
+        <v>29.66450953483581</v>
       </c>
     </row>
     <row r="5">
@@ -998,7 +998,7 @@
         <v>24.54</v>
       </c>
       <c r="F5" t="n">
-        <v>37.69894766807556</v>
+        <v>29.80825686454773</v>
       </c>
     </row>
     <row r="6">
@@ -1018,7 +1018,7 @@
         <v>27.75</v>
       </c>
       <c r="F6" t="n">
-        <v>38.60870862007141</v>
+        <v>29.63968539237976</v>
       </c>
     </row>
     <row r="7">
@@ -1038,7 +1038,7 @@
         <v>29.16</v>
       </c>
       <c r="F7" t="n">
-        <v>38.10941195487976</v>
+        <v>29.6733717918396</v>
       </c>
     </row>
     <row r="8">
@@ -1058,7 +1058,7 @@
         <v>30.06</v>
       </c>
       <c r="F8" t="n">
-        <v>36.639568567276</v>
+        <v>29.68173623085022</v>
       </c>
     </row>
     <row r="9">
@@ -1078,7 +1078,7 @@
         <v>31.46</v>
       </c>
       <c r="F9" t="n">
-        <v>36.5728919506073</v>
+        <v>29.6186830997467</v>
       </c>
     </row>
     <row r="10">
@@ -1098,7 +1098,7 @@
         <v>32.03</v>
       </c>
       <c r="F10" t="n">
-        <v>37.05384612083435</v>
+        <v>29.64041996002197</v>
       </c>
     </row>
     <row r="11">
@@ -1118,7 +1118,7 @@
         <v>33.66</v>
       </c>
       <c r="F11" t="n">
-        <v>38.54558610916138</v>
+        <v>29.92515659332276</v>
       </c>
     </row>
     <row r="12">
@@ -1138,7 +1138,7 @@
         <v>34.3</v>
       </c>
       <c r="F12" t="n">
-        <v>36.46612548828125</v>
+        <v>29.71010065078736</v>
       </c>
     </row>
     <row r="13">
@@ -1158,7 +1158,7 @@
         <v>34.66</v>
       </c>
       <c r="F13" t="n">
-        <v>35.69672536849976</v>
+        <v>29.80621671676636</v>
       </c>
     </row>
     <row r="14">
@@ -1178,7 +1178,7 @@
         <v>35.12</v>
       </c>
       <c r="F14" t="n">
-        <v>35.65347671508789</v>
+        <v>29.55991768836975</v>
       </c>
     </row>
     <row r="15">
@@ -1198,7 +1198,7 @@
         <v>35.47</v>
       </c>
       <c r="F15" t="n">
-        <v>36.93721890449524</v>
+        <v>29.69466066360474</v>
       </c>
     </row>
     <row r="16">
@@ -1218,7 +1218,7 @@
         <v>36.31</v>
       </c>
       <c r="F16" t="n">
-        <v>38.47669315338135</v>
+        <v>29.65447378158569</v>
       </c>
     </row>
     <row r="17">
@@ -1238,7 +1238,7 @@
         <v>36.91</v>
       </c>
       <c r="F17" t="n">
-        <v>37.66279435157776</v>
+        <v>29.46091103553772</v>
       </c>
     </row>
     <row r="18">
@@ -1258,7 +1258,7 @@
         <v>37.77</v>
       </c>
       <c r="F18" t="n">
-        <v>36.82397484779358</v>
+        <v>29.5955741405487</v>
       </c>
     </row>
     <row r="19">
@@ -1278,7 +1278,7 @@
         <v>37.42</v>
       </c>
       <c r="F19" t="n">
-        <v>36.53430008888245</v>
+        <v>29.71961712837219</v>
       </c>
     </row>
     <row r="20">
@@ -1298,7 +1298,7 @@
         <v>38.53</v>
       </c>
       <c r="F20" t="n">
-        <v>36.50203990936279</v>
+        <v>29.80578541755676</v>
       </c>
     </row>
     <row r="21">
@@ -1318,7 +1318,7 @@
         <v>38.54</v>
       </c>
       <c r="F21" t="n">
-        <v>38.42614722251892</v>
+        <v>30.13820433616639</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1389,7 @@
         <v>14.17</v>
       </c>
       <c r="F2" t="n">
-        <v>39.07114195823669</v>
+        <v>30.08850598335266</v>
       </c>
     </row>
     <row r="3">
@@ -1409,7 +1409,7 @@
         <v>20.54</v>
       </c>
       <c r="F3" t="n">
-        <v>37.84420251846313</v>
+        <v>29.91855692863464</v>
       </c>
     </row>
     <row r="4">
@@ -1429,7 +1429,7 @@
         <v>24.45</v>
       </c>
       <c r="F4" t="n">
-        <v>37.66147780418396</v>
+        <v>29.72693347930908</v>
       </c>
     </row>
     <row r="5">
@@ -1449,7 +1449,7 @@
         <v>26.46</v>
       </c>
       <c r="F5" t="n">
-        <v>37.77547359466553</v>
+        <v>29.87942266464233</v>
       </c>
     </row>
     <row r="6">
@@ -1469,7 +1469,7 @@
         <v>28.56</v>
       </c>
       <c r="F6" t="n">
-        <v>37.73867082595825</v>
+        <v>29.70138549804688</v>
       </c>
     </row>
     <row r="7">
@@ -1489,7 +1489,7 @@
         <v>30.57</v>
       </c>
       <c r="F7" t="n">
-        <v>37.80834627151489</v>
+        <v>29.82395458221436</v>
       </c>
     </row>
     <row r="8">
@@ -1509,7 +1509,7 @@
         <v>32.01</v>
       </c>
       <c r="F8" t="n">
-        <v>37.91620206832886</v>
+        <v>29.86751890182495</v>
       </c>
     </row>
     <row r="9">
@@ -1529,7 +1529,7 @@
         <v>33.11</v>
       </c>
       <c r="F9" t="n">
-        <v>37.85934567451477</v>
+        <v>29.75716161727905</v>
       </c>
     </row>
     <row r="10">
@@ -1549,7 +1549,7 @@
         <v>33.75</v>
       </c>
       <c r="F10" t="n">
-        <v>37.30507206916809</v>
+        <v>29.7739098072052</v>
       </c>
     </row>
     <row r="11">
@@ -1569,7 +1569,7 @@
         <v>34.14</v>
       </c>
       <c r="F11" t="n">
-        <v>36.08254933357239</v>
+        <v>29.95717191696167</v>
       </c>
     </row>
     <row r="12">
@@ -1589,7 +1589,7 @@
         <v>36.03</v>
       </c>
       <c r="F12" t="n">
-        <v>35.6748354434967</v>
+        <v>29.71072292327881</v>
       </c>
     </row>
     <row r="13">
@@ -1609,7 +1609,7 @@
         <v>35.9</v>
       </c>
       <c r="F13" t="n">
-        <v>35.06418561935425</v>
+        <v>29.6784679889679</v>
       </c>
     </row>
     <row r="14">
@@ -1629,7 +1629,7 @@
         <v>36.33</v>
       </c>
       <c r="F14" t="n">
-        <v>37.8489191532135</v>
+        <v>29.78381419181824</v>
       </c>
     </row>
     <row r="15">
@@ -1649,7 +1649,7 @@
         <v>36.39</v>
       </c>
       <c r="F15" t="n">
-        <v>38.0638861656189</v>
+        <v>29.98187208175659</v>
       </c>
     </row>
     <row r="16">
@@ -1669,7 +1669,7 @@
         <v>37.36</v>
       </c>
       <c r="F16" t="n">
-        <v>36.42489218711853</v>
+        <v>29.86907625198364</v>
       </c>
     </row>
     <row r="17">
@@ -1689,7 +1689,7 @@
         <v>37.28</v>
       </c>
       <c r="F17" t="n">
-        <v>35.78581547737122</v>
+        <v>29.81101512908936</v>
       </c>
     </row>
     <row r="18">
@@ -1709,7 +1709,7 @@
         <v>38.48</v>
       </c>
       <c r="F18" t="n">
-        <v>35.93976902961731</v>
+        <v>29.89785242080688</v>
       </c>
     </row>
     <row r="19">
@@ -1729,7 +1729,7 @@
         <v>38.82</v>
       </c>
       <c r="F19" t="n">
-        <v>36.18543291091919</v>
+        <v>29.8581383228302</v>
       </c>
     </row>
     <row r="20">
@@ -1749,7 +1749,7 @@
         <v>39.35</v>
       </c>
       <c r="F20" t="n">
-        <v>36.13799047470093</v>
+        <v>29.88987064361572</v>
       </c>
     </row>
     <row r="21">
@@ -1769,7 +1769,7 @@
         <v>38.89</v>
       </c>
       <c r="F21" t="n">
-        <v>37.46460628509521</v>
+        <v>30.04284644126892</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1840,7 @@
         <v>14.18</v>
       </c>
       <c r="F2" t="n">
-        <v>38.0936017036438</v>
+        <v>29.98294520378113</v>
       </c>
     </row>
     <row r="3">
@@ -1860,7 +1860,7 @@
         <v>20.13</v>
       </c>
       <c r="F3" t="n">
-        <v>35.82992053031921</v>
+        <v>29.89377474784851</v>
       </c>
     </row>
     <row r="4">
@@ -1880,7 +1880,7 @@
         <v>23.83</v>
       </c>
       <c r="F4" t="n">
-        <v>36.224116563797</v>
+        <v>29.67446756362915</v>
       </c>
     </row>
     <row r="5">
@@ -1900,7 +1900,7 @@
         <v>27.01</v>
       </c>
       <c r="F5" t="n">
-        <v>36.45476937294006</v>
+        <v>29.75350451469421</v>
       </c>
     </row>
     <row r="6">
@@ -1920,7 +1920,7 @@
         <v>28.65</v>
       </c>
       <c r="F6" t="n">
-        <v>36.55915117263794</v>
+        <v>29.75709795951844</v>
       </c>
     </row>
     <row r="7">
@@ -1940,7 +1940,7 @@
         <v>30.49</v>
       </c>
       <c r="F7" t="n">
-        <v>36.49658584594727</v>
+        <v>29.79875063896179</v>
       </c>
     </row>
     <row r="8">
@@ -1960,7 +1960,7 @@
         <v>31.44</v>
       </c>
       <c r="F8" t="n">
-        <v>37.62883687019348</v>
+        <v>29.73088812828064</v>
       </c>
     </row>
     <row r="9">
@@ -1980,7 +1980,7 @@
         <v>33.15</v>
       </c>
       <c r="F9" t="n">
-        <v>37.93181347846985</v>
+        <v>29.74415707588196</v>
       </c>
     </row>
     <row r="10">
@@ -2000,7 +2000,7 @@
         <v>34.66</v>
       </c>
       <c r="F10" t="n">
-        <v>38.28988981246948</v>
+        <v>29.84790682792664</v>
       </c>
     </row>
     <row r="11">
@@ -2020,7 +2020,7 @@
         <v>34.65</v>
       </c>
       <c r="F11" t="n">
-        <v>36.61430525779724</v>
+        <v>29.98173403739929</v>
       </c>
     </row>
     <row r="12">
@@ -2040,7 +2040,7 @@
         <v>35.6</v>
       </c>
       <c r="F12" t="n">
-        <v>36.20737266540527</v>
+        <v>29.76532912254333</v>
       </c>
     </row>
     <row r="13">
@@ -2060,7 +2060,7 @@
         <v>35.94</v>
       </c>
       <c r="F13" t="n">
-        <v>35.33326363563538</v>
+        <v>29.67596244812012</v>
       </c>
     </row>
     <row r="14">
@@ -2080,7 +2080,7 @@
         <v>37.15</v>
       </c>
       <c r="F14" t="n">
-        <v>35.47240400314331</v>
+        <v>29.6386616230011</v>
       </c>
     </row>
     <row r="15">
@@ -2100,7 +2100,7 @@
         <v>37.5</v>
       </c>
       <c r="F15" t="n">
-        <v>35.73089289665222</v>
+        <v>29.66742587089539</v>
       </c>
     </row>
     <row r="16">
@@ -2120,7 +2120,7 @@
         <v>37.23</v>
       </c>
       <c r="F16" t="n">
-        <v>37.3724377155304</v>
+        <v>29.7730803489685</v>
       </c>
     </row>
     <row r="17">
@@ -2140,7 +2140,7 @@
         <v>37.07</v>
       </c>
       <c r="F17" t="n">
-        <v>36.86261367797852</v>
+        <v>29.71079230308533</v>
       </c>
     </row>
     <row r="18">
@@ -2160,7 +2160,7 @@
         <v>37.93</v>
       </c>
       <c r="F18" t="n">
-        <v>35.90040159225464</v>
+        <v>29.8144896030426</v>
       </c>
     </row>
     <row r="19">
@@ -2180,7 +2180,7 @@
         <v>38.37</v>
       </c>
       <c r="F19" t="n">
-        <v>35.04746007919312</v>
+        <v>29.72393012046814</v>
       </c>
     </row>
     <row r="20">
@@ -2200,7 +2200,7 @@
         <v>38.35</v>
       </c>
       <c r="F20" t="n">
-        <v>34.78872227668762</v>
+        <v>29.85459518432617</v>
       </c>
     </row>
     <row r="21">
@@ -2220,7 +2220,7 @@
         <v>38.63</v>
       </c>
       <c r="F21" t="n">
-        <v>35.46592807769775</v>
+        <v>30.02745604515076</v>
       </c>
     </row>
   </sheetData>
@@ -2291,7 +2291,7 @@
         <v>13.24</v>
       </c>
       <c r="F2" t="n">
-        <v>35.14515233039856</v>
+        <v>30.02897477149964</v>
       </c>
     </row>
     <row r="3">
@@ -2311,7 +2311,7 @@
         <v>21.35</v>
       </c>
       <c r="F3" t="n">
-        <v>34.75720000267029</v>
+        <v>29.67903447151184</v>
       </c>
     </row>
     <row r="4">
@@ -2331,7 +2331,7 @@
         <v>24.23</v>
       </c>
       <c r="F4" t="n">
-        <v>36.36375236511231</v>
+        <v>29.69495511054993</v>
       </c>
     </row>
     <row r="5">
@@ -2351,7 +2351,7 @@
         <v>25.94</v>
       </c>
       <c r="F5" t="n">
-        <v>36.46479249000549</v>
+        <v>29.93721175193786</v>
       </c>
     </row>
     <row r="6">
@@ -2371,7 +2371,7 @@
         <v>28.08</v>
       </c>
       <c r="F6" t="n">
-        <v>35.44463968276978</v>
+        <v>29.70258188247681</v>
       </c>
     </row>
     <row r="7">
@@ -2391,7 +2391,7 @@
         <v>29.53</v>
       </c>
       <c r="F7" t="n">
-        <v>35.09241604804993</v>
+        <v>29.64367437362671</v>
       </c>
     </row>
     <row r="8">
@@ -2411,7 +2411,7 @@
         <v>31.95</v>
       </c>
       <c r="F8" t="n">
-        <v>35.05076146125793</v>
+        <v>29.80858516693115</v>
       </c>
     </row>
     <row r="9">
@@ -2431,7 +2431,7 @@
         <v>32.72</v>
       </c>
       <c r="F9" t="n">
-        <v>35.19797801971436</v>
+        <v>29.64525747299194</v>
       </c>
     </row>
     <row r="10">
@@ -2451,7 +2451,7 @@
         <v>34.01</v>
       </c>
       <c r="F10" t="n">
-        <v>35.04445695877075</v>
+        <v>29.81223130226136</v>
       </c>
     </row>
     <row r="11">
@@ -2471,7 +2471,7 @@
         <v>35.29</v>
       </c>
       <c r="F11" t="n">
-        <v>36.05636739730835</v>
+        <v>29.90772199630737</v>
       </c>
     </row>
     <row r="12">
@@ -2491,7 +2491,7 @@
         <v>34.96</v>
       </c>
       <c r="F12" t="n">
-        <v>35.79991412162781</v>
+        <v>29.73106503486633</v>
       </c>
     </row>
     <row r="13">
@@ -2511,7 +2511,7 @@
         <v>35.71</v>
       </c>
       <c r="F13" t="n">
-        <v>35.30384373664856</v>
+        <v>29.74583292007446</v>
       </c>
     </row>
     <row r="14">
@@ -2531,7 +2531,7 @@
         <v>37</v>
       </c>
       <c r="F14" t="n">
-        <v>35.3411431312561</v>
+        <v>29.7270565032959</v>
       </c>
     </row>
     <row r="15">
@@ -2551,7 +2551,7 @@
         <v>38.48</v>
       </c>
       <c r="F15" t="n">
-        <v>35.99451041221619</v>
+        <v>29.70574951171875</v>
       </c>
     </row>
     <row r="16">
@@ -2571,7 +2571,7 @@
         <v>38.46</v>
       </c>
       <c r="F16" t="n">
-        <v>35.96308922767639</v>
+        <v>29.705162525177</v>
       </c>
     </row>
     <row r="17">
@@ -2591,7 +2591,7 @@
         <v>38.41</v>
       </c>
       <c r="F17" t="n">
-        <v>35.89192175865173</v>
+        <v>29.6982216835022</v>
       </c>
     </row>
     <row r="18">
@@ -2611,7 +2611,7 @@
         <v>38.83</v>
       </c>
       <c r="F18" t="n">
-        <v>35.81559062004089</v>
+        <v>29.7186450958252</v>
       </c>
     </row>
     <row r="19">
@@ -2631,7 +2631,7 @@
         <v>39.38</v>
       </c>
       <c r="F19" t="n">
-        <v>35.2703583240509</v>
+        <v>29.64789414405823</v>
       </c>
     </row>
     <row r="20">
@@ -2651,7 +2651,7 @@
         <v>39.6</v>
       </c>
       <c r="F20" t="n">
-        <v>35.30971503257751</v>
+        <v>29.73085403442383</v>
       </c>
     </row>
     <row r="21">
@@ -2671,7 +2671,7 @@
         <v>40.06</v>
       </c>
       <c r="F21" t="n">
-        <v>35.82537460327148</v>
+        <v>30.00629210472107</v>
       </c>
     </row>
   </sheetData>
